--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_538.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_538.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29105-d75820-Reviews-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Arcadia-Pasadena-Area.h980976.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085270211&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=2c70f8ba-6eaf-4236-84f1-d1a1fe98d348&amp;mctc=9&amp;exp_dp=89.99&amp;exp_ts=1529085271060&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_538.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,619 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r543905569-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>29105</t>
+  </si>
+  <si>
+    <t>75820</t>
+  </si>
+  <si>
+    <t>543905569</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Best Motel 6 we've ever stayed at</t>
+  </si>
+  <si>
+    <t>On a recent cross-country trip from Oregon to Michigan and back (via California), we stayed at 15 different Motel 6 locations.  Generally, they fall into one of two categories – “a decent stay for a decent price,” or “a sleep cheap and we know it.”  The former are well-kept properties where service and cleanliness are top-notch; the latter are places that fail to perform routine maintenance or cleaning, and/or fail to in some other manner.The Pasadena Motel 6 was the best of the 15 – beautiful facility and great staff.  The only issue we had was there was no remote for the TV – we told the front desk and they immediate found us one.  5 stars here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>On a recent cross-country trip from Oregon to Michigan and back (via California), we stayed at 15 different Motel 6 locations.  Generally, they fall into one of two categories – “a decent stay for a decent price,” or “a sleep cheap and we know it.”  The former are well-kept properties where service and cleanliness are top-notch; the latter are places that fail to perform routine maintenance or cleaning, and/or fail to in some other manner.The Pasadena Motel 6 was the best of the 15 – beautiful facility and great staff.  The only issue we had was there was no remote for the TV – we told the front desk and they immediate found us one.  5 stars here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r524500906-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>524500906</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Easily the worst customer service I've experienced.  Uninformed staff.  I booked 28 days, and I left within an hour or two.Very sleezy people milling about.  Sure, it's cheap, but people with the demeanor of county jail parolees run the place.  (The trainee behind the counter really wanted to help, but she was trumped by some really nasty Motel 6 personnel.Stains on the bedspreads were the actual dealbreaker.  I turned in the key and told the rep not to charge me.  I contacted national before I did.  They were no help either.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r483658968-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>483658968</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Ads are Misleading...Over Priced</t>
+  </si>
+  <si>
+    <t>Once again, do not trust the marketing!! Barbie, Ken and Skipper would have severe issues with a room this @sdg&amp;%$ small!! No Refrigerator, No Microwave, No Closet, Daily WiFi Fees!! This Hotel is Not Recommended! Excessively Over Priced!!  Horse Track in Walking Distance!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r435409624-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>435409624</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>They Will Leave The Light On, But Not Much Else</t>
+  </si>
+  <si>
+    <t>We stayed for five nights in the Motel 6 Arcadia over Breeders' Cup 2016 week.  The motel is very close to the world-famous Santa Anita Race Park and, like all hotels in the area, drew quite a premium (over $100.00 per night) for the special event.  I believe regular pricing is closer to $75.00 per night.
+I wanted to comment on a recent review stating that the Santa Anita Race Track is just across the street from the hotel.  Technically, this may be right.  Just across Colorado Street, you will be in one of the very distant parking lots of Santa Anita, but it is well over 1/2 of a mile to the entrance gate.  Also in the well meaning review, it was stated that the Westfield Mall is a two minute walk from the motel.  That simply is not the case.  You will need to drive all the way around the track to get to the upscale mall.....well over a mile away.
+Still, the hotel is very convenient for plans at Santa Anita.  The street side of the motel faces Santa Anita and the backside gives you a mountain view.  If you have mobility issues, the motel is two stories with no elevator, you will need a first floor room.  The staff was a plus, in my opinion.  The front desk clerks were always friendly and helpful.  We got a free early check-in and a late check-out.  The staff...We stayed for five nights in the Motel 6 Arcadia over Breeders' Cup 2016 week.  The motel is very close to the world-famous Santa Anita Race Park and, like all hotels in the area, drew quite a premium (over $100.00 per night) for the special event.  I believe regular pricing is closer to $75.00 per night.I wanted to comment on a recent review stating that the Santa Anita Race Track is just across the street from the hotel.  Technically, this may be right.  Just across Colorado Street, you will be in one of the very distant parking lots of Santa Anita, but it is well over 1/2 of a mile to the entrance gate.  Also in the well meaning review, it was stated that the Westfield Mall is a two minute walk from the motel.  That simply is not the case.  You will need to drive all the way around the track to get to the upscale mall.....well over a mile away.Still, the hotel is very convenient for plans at Santa Anita.  The street side of the motel faces Santa Anita and the backside gives you a mountain view.  If you have mobility issues, the motel is two stories with no elevator, you will need a first floor room.  The staff was a plus, in my opinion.  The front desk clerks were always friendly and helpful.  We got a free early check-in and a late check-out.  The staff graciously refrigerated my medication during the stay.  There was fresh, hot coffee in the lobby each morning.Housekeeping was a real highlight.  Each day we would come back to a very clean room with beds made perfectly.  The housekeepers take pride in their work and we appreciated their efforts.  The grounds were kept up nice and the premises were clean.  The beds were comfortable and there was a good selection of channels on the mounted flat screen TV.The water pressure was a little low in the shower, but plenty of hot water.  The water saver on the sink is just obnoxious.  It takes you about 20 seconds to fill up an 8 ounce cup.  Still, the room was clean and comfortable, which was our ultimate goal.  The ice machine went out for two days of our stay and the front desk tried to import enough ice for the guests, which helped.  It appears that the hotel guests and maybe a few trespassers continually loaded up ice chests for their day at the race track and overwhelmed the machine.  It was fixed within 48 hours.The motel has a really poor system of maintaining non-smoking rooms.  We had a non-smoking room that had a moderate smell of smoke.  We reported that to the front desk so that we would not be charged a cleaning fee for smoking in the room.  We learned that there is no penalty for smokers smoking in a non-smoking room.  Of course, this effectively makes every room a smoking room.  The housekeeper tried to deodorize the room, but still it had a smoky smell.  The staff offered another non-smoking room, which had the same problem.  I wish Motel 6 would try to protect its non-smoking rooms better with a standard $250.00 cleaning fee if evidence of smoke is found in the room.Also, the motel provides no shampoo, no conditioner, no hairdryer (although the front desk has loaners), no iron or ironing board, no refrigerator, no microwave, no clock and no coffee pot.  The vending machines downstairs were old and did not accept our dollars.  No convenience stores or grocery stores are within a couple of miles.  Peppers Mexican Grill is about 300 yards down the road, but was pricey and not very good.If you drive a couple of miles into the heart of town, you will find many good restaurants and a Ralph's grocery store.  We could not get the $3.00 per day wi-fi to connect, so we just used our regular 4G Internet service on our cell phones..  We typically prefer hotels over motels and may only stay at a Motel 6 in the future if the location really matters.  If the Breeders' Cup returns to Santa Anita, this motel will likely be where we stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed for five nights in the Motel 6 Arcadia over Breeders' Cup 2016 week.  The motel is very close to the world-famous Santa Anita Race Park and, like all hotels in the area, drew quite a premium (over $100.00 per night) for the special event.  I believe regular pricing is closer to $75.00 per night.
+I wanted to comment on a recent review stating that the Santa Anita Race Track is just across the street from the hotel.  Technically, this may be right.  Just across Colorado Street, you will be in one of the very distant parking lots of Santa Anita, but it is well over 1/2 of a mile to the entrance gate.  Also in the well meaning review, it was stated that the Westfield Mall is a two minute walk from the motel.  That simply is not the case.  You will need to drive all the way around the track to get to the upscale mall.....well over a mile away.
+Still, the hotel is very convenient for plans at Santa Anita.  The street side of the motel faces Santa Anita and the backside gives you a mountain view.  If you have mobility issues, the motel is two stories with no elevator, you will need a first floor room.  The staff was a plus, in my opinion.  The front desk clerks were always friendly and helpful.  We got a free early check-in and a late check-out.  The staff...We stayed for five nights in the Motel 6 Arcadia over Breeders' Cup 2016 week.  The motel is very close to the world-famous Santa Anita Race Park and, like all hotels in the area, drew quite a premium (over $100.00 per night) for the special event.  I believe regular pricing is closer to $75.00 per night.I wanted to comment on a recent review stating that the Santa Anita Race Track is just across the street from the hotel.  Technically, this may be right.  Just across Colorado Street, you will be in one of the very distant parking lots of Santa Anita, but it is well over 1/2 of a mile to the entrance gate.  Also in the well meaning review, it was stated that the Westfield Mall is a two minute walk from the motel.  That simply is not the case.  You will need to drive all the way around the track to get to the upscale mall.....well over a mile away.Still, the hotel is very convenient for plans at Santa Anita.  The street side of the motel faces Santa Anita and the backside gives you a mountain view.  If you have mobility issues, the motel is two stories with no elevator, you will need a first floor room.  The staff was a plus, in my opinion.  The front desk clerks were always friendly and helpful.  We got a free early check-in and a late check-out.  The staff graciously refrigerated my medication during the stay.  There was fresh, hot coffee in the lobby each morning.Housekeeping was a real highlight.  Each day we would come back to a very clean room with beds made perfectly.  The housekeepers take pride in their work and we appreciated their efforts.  The grounds were kept up nice and the premises were clean.  The beds were comfortable and there was a good selection of channels on the mounted flat screen TV.The water pressure was a little low in the shower, but plenty of hot water.  The water saver on the sink is just obnoxious.  It takes you about 20 seconds to fill up an 8 ounce cup.  Still, the room was clean and comfortable, which was our ultimate goal.  The ice machine went out for two days of our stay and the front desk tried to import enough ice for the guests, which helped.  It appears that the hotel guests and maybe a few trespassers continually loaded up ice chests for their day at the race track and overwhelmed the machine.  It was fixed within 48 hours.The motel has a really poor system of maintaining non-smoking rooms.  We had a non-smoking room that had a moderate smell of smoke.  We reported that to the front desk so that we would not be charged a cleaning fee for smoking in the room.  We learned that there is no penalty for smokers smoking in a non-smoking room.  Of course, this effectively makes every room a smoking room.  The housekeeper tried to deodorize the room, but still it had a smoky smell.  The staff offered another non-smoking room, which had the same problem.  I wish Motel 6 would try to protect its non-smoking rooms better with a standard $250.00 cleaning fee if evidence of smoke is found in the room.Also, the motel provides no shampoo, no conditioner, no hairdryer (although the front desk has loaners), no iron or ironing board, no refrigerator, no microwave, no clock and no coffee pot.  The vending machines downstairs were old and did not accept our dollars.  No convenience stores or grocery stores are within a couple of miles.  Peppers Mexican Grill is about 300 yards down the road, but was pricey and not very good.If you drive a couple of miles into the heart of town, you will find many good restaurants and a Ralph's grocery store.  We could not get the $3.00 per day wi-fi to connect, so we just used our regular 4G Internet service on our cell phones..  We typically prefer hotels over motels and may only stay at a Motel 6 in the future if the location really matters.  If the Breeders' Cup returns to Santa Anita, this motel will likely be where we stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r431872610-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>431872610</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Room nice but other things detract</t>
+  </si>
+  <si>
+    <t>I had stayed here once about 10 years ago (Arcadia is my home town but I haven't lived there in many, many years). The room itself was quite nice. However, I found myself in a smoking room which is not what I wished for. I don't know if I missed this on the Motel 6 website. The wash cloth had holes in it. I would have liked some shampoo and an alarm clock. The landscaping could use more attention. $90+ seems high but the fancier chains were much more.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r410322084-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>410322084</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Pleasant, Relaxing &amp; Great Value!</t>
+  </si>
+  <si>
+    <t>Helpful and attentive staff, clean room with all the essentials, nice view of the mountains, cable TV, free local &amp; 800 calls. Across the street from the Santa Anita Racetrack. Close by to golf course, restaurants, Rod's Diner, LA County Arboretum, Highways, Metro Gold Line, bus lines.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r363059756-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>363059756</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>at the track</t>
+  </si>
+  <si>
+    <t>Renovated rooms, very convenient to race track and Methodist Hospital.  Basic room, no refrig or microwave, but good Wi-Fi (pay by the day) and friendly staff.  sometimes noisy but not bad. inner court yard might be less noise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r359813047-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>359813047</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>Upon check in, the hotel has a policy which requires every adult staying in the room to show ID.  Although this isn't a bad thing, I've never had to have my spouse show their ID to the front check in clerk.  
+The property appeared to be very nice on the outside.  The room, however, was a different story.  Upon opening my room, the smell of smoke just about strangled me.  I have never, and I mean never, smelled so much smoke in a room in my life.  Unfortunately, the hotel was sold out and there were no more rooms available.  At 10pm, you are left with what they gave you.  I use a c-pap machine and the smell is still in the machine 4 days later, I can't seem to get it out.  My allergies were a mess the next day.
+The room appearance was very nice, the bed was not.  Both of us had sore backs the next morning.  We both kept waking up during the night the bed was so uncomfortable.  There is no box spring, it's just a mattress on a board frame.  The towel holder had so much dust it probably hasn't been cleaned in months.  
+The next morning I needed to iron and of course, no iron's or boards in the room.  You need to go to the lobby, leave your ID and they will let you borrow a board and iron.  
+This was my...Upon check in, the hotel has a policy which requires every adult staying in the room to show ID.  Although this isn't a bad thing, I've never had to have my spouse show their ID to the front check in clerk.  The property appeared to be very nice on the outside.  The room, however, was a different story.  Upon opening my room, the smell of smoke just about strangled me.  I have never, and I mean never, smelled so much smoke in a room in my life.  Unfortunately, the hotel was sold out and there were no more rooms available.  At 10pm, you are left with what they gave you.  I use a c-pap machine and the smell is still in the machine 4 days later, I can't seem to get it out.  My allergies were a mess the next day.The room appearance was very nice, the bed was not.  Both of us had sore backs the next morning.  We both kept waking up during the night the bed was so uncomfortable.  There is no box spring, it's just a mattress on a board frame.  The towel holder had so much dust it probably hasn't been cleaned in months.  The next morning I needed to iron and of course, no iron's or boards in the room.  You need to go to the lobby, leave your ID and they will let you borrow a board and iron.  This was my first and last time at a Motel 6.  I am not typically a picky person.  As long as  room is clean and comfortable I don't care what the name on the sigh says.  This was not a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Los Angeles - Arcadia / Pasadena, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Upon check in, the hotel has a policy which requires every adult staying in the room to show ID.  Although this isn't a bad thing, I've never had to have my spouse show their ID to the front check in clerk.  
+The property appeared to be very nice on the outside.  The room, however, was a different story.  Upon opening my room, the smell of smoke just about strangled me.  I have never, and I mean never, smelled so much smoke in a room in my life.  Unfortunately, the hotel was sold out and there were no more rooms available.  At 10pm, you are left with what they gave you.  I use a c-pap machine and the smell is still in the machine 4 days later, I can't seem to get it out.  My allergies were a mess the next day.
+The room appearance was very nice, the bed was not.  Both of us had sore backs the next morning.  We both kept waking up during the night the bed was so uncomfortable.  There is no box spring, it's just a mattress on a board frame.  The towel holder had so much dust it probably hasn't been cleaned in months.  
+The next morning I needed to iron and of course, no iron's or boards in the room.  You need to go to the lobby, leave your ID and they will let you borrow a board and iron.  
+This was my...Upon check in, the hotel has a policy which requires every adult staying in the room to show ID.  Although this isn't a bad thing, I've never had to have my spouse show their ID to the front check in clerk.  The property appeared to be very nice on the outside.  The room, however, was a different story.  Upon opening my room, the smell of smoke just about strangled me.  I have never, and I mean never, smelled so much smoke in a room in my life.  Unfortunately, the hotel was sold out and there were no more rooms available.  At 10pm, you are left with what they gave you.  I use a c-pap machine and the smell is still in the machine 4 days later, I can't seem to get it out.  My allergies were a mess the next day.The room appearance was very nice, the bed was not.  Both of us had sore backs the next morning.  We both kept waking up during the night the bed was so uncomfortable.  There is no box spring, it's just a mattress on a board frame.  The towel holder had so much dust it probably hasn't been cleaned in months.  The next morning I needed to iron and of course, no iron's or boards in the room.  You need to go to the lobby, leave your ID and they will let you borrow a board and iron.  This was my first and last time at a Motel 6.  I am not typically a picky person.  As long as  room is clean and comfortable I don't care what the name on the sigh says.  This was not a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r352925456-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>352925456</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this motel in October while visiting family in the area. They have updated rooms which were surprisingly pretty nice, and clean. The room we were in was a little small, but other than that we were happy with our stay. I wish I could remember the young man's name that was working at the front desk because he was very kind and helpful throughout our whole stay! </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r329115992-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>329115992</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Horribly rude manager</t>
+  </si>
+  <si>
+    <t>When you are in the business of providing a service to people a manager above all should know how to talk to you. The manager at this location is extremely rude,to the point where you take a step back and ask yourself, did i hear right. I know we all have bad days but leave the attitude at home. I interact with several hundred customers a year and would never speak to anyone the way she does.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r322832022-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>322832022</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Way better than most </t>
+  </si>
+  <si>
+    <t>My boyfriend and I stay here every so often to get away from things. We have never had any problems here. The staff was very friendly even when they were swamped, the rooms very clean and BUG FREE. The room service system they have is on the pricey side but still very good. There were varies shady people staying there we found them not to be a bother. We figure they just want to be left alone to do there thing just like anybody else staying there. Actually felt very safe there Arcadia Police drive though a few times a day. Great location varies restaurants shopping mall and very close to pasadena. We are looking forward to out next great away. Would highly recommend this Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stay here every so often to get away from things. We have never had any problems here. The staff was very friendly even when they were swamped, the rooms very clean and BUG FREE. The room service system they have is on the pricey side but still very good. There were varies shady people staying there we found them not to be a bother. We figure they just want to be left alone to do there thing just like anybody else staying there. Actually felt very safe there Arcadia Police drive though a few times a day. Great location varies restaurants shopping mall and very close to pasadena. We are looking forward to out next great away. Would highly recommend this Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r315738732-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>315738732</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motel 6 is great. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a great Motel 6. Nice room and a great location. Room was very nice and clean. Felt safe and secure and happy with rates compared to the rest of LA rates. Will definitely stay here again. Great value and they take my dog. Very happy traveler! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r257376789-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>257376789</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Very Caring Management/Staff</t>
+  </si>
+  <si>
+    <t>We were a bit stranded due to mechanical problems - and during the time it took to (a) find a mechanic with a  tow truck and (b) try and wait for his (very busy schedule.) This Motel 6 allowed us to keep the room beyond check out time in order that we would be comfortable as we waited.  We asked the housekeeping staff if that would throw off their 'schedule' and each maid replied:  "we will save you for last" -- they were so kind and so caring, and I cannot thank them enough.  BTW:  Nice room at a great price, and they helped me through a difficult situation with compassion.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We were a bit stranded due to mechanical problems - and during the time it took to (a) find a mechanic with a  tow truck and (b) try and wait for his (very busy schedule.) This Motel 6 allowed us to keep the room beyond check out time in order that we would be comfortable as we waited.  We asked the housekeeping staff if that would throw off their 'schedule' and each maid replied:  "we will save you for last" -- they were so kind and so caring, and I cannot thank them enough.  BTW:  Nice room at a great price, and they helped me through a difficult situation with compassion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r221193479-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>221193479</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Location ok -- Staff horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms and cleanliness are about standard for a motel 6.  The location is ok but what makes this motel particularly bad is the staff.  This hotel's "policies" are different from their corporate ones and... they change depending on the staff member.  Manager is rude, borderline aggressive not interested in building return business.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r213297846-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>213297846</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Lousy!</t>
+  </si>
+  <si>
+    <t>Stayed here one night and moved to different hotel. Very loud, kids running around till late at night and noisy patriots all over the place. Rooms are very small, shower water pressure non existent. Would not recommend to anyone.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r184363771-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>184363771</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT for a MOTEL-6</t>
+  </si>
+  <si>
+    <t>Chose this MOTEL-6 because of it's location for the BREEDERS' CUP @ Santa Anita across the street .. .. For the races, this location is unmatched as the entrance (through the infield) is just across the street - You can just chip a golfball from dour room to the entrance gate!!UNMATCHED LOCATION FOR SANTA ANITA RACETRACK!!!Keep in mind, this is MOTEL-6, and even with that in mind our stay in Room 110 was terrific .. ..LARGE, ROOMY, COMFY BEDS &amp; DECENT WI-FI .. .. Our stays in the others rooms saw a smaller room and smaller pillows, so definitely choose a corner room (110, 210 etc.) whenever possible .. .. Suggestion &gt; I tend to travel with a favorite beach blanket, large pillow and bathroom towel anyways so when you bring that into any MOTEL-6 room, you're just fine .. .. If you are expecting a MARRIOTT, HOLIDAY INN or SHERATON experience, that is just unrealistic .. .. Be prepared = Be happy .. ..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Chose this MOTEL-6 because of it's location for the BREEDERS' CUP @ Santa Anita across the street .. .. For the races, this location is unmatched as the entrance (through the infield) is just across the street - You can just chip a golfball from dour room to the entrance gate!!UNMATCHED LOCATION FOR SANTA ANITA RACETRACK!!!Keep in mind, this is MOTEL-6, and even with that in mind our stay in Room 110 was terrific .. ..LARGE, ROOMY, COMFY BEDS &amp; DECENT WI-FI .. .. Our stays in the others rooms saw a smaller room and smaller pillows, so definitely choose a corner room (110, 210 etc.) whenever possible .. .. Suggestion &gt; I tend to travel with a favorite beach blanket, large pillow and bathroom towel anyways so when you bring that into any MOTEL-6 room, you're just fine .. .. If you are expecting a MARRIOTT, HOLIDAY INN or SHERATON experience, that is just unrealistic .. .. Be prepared = Be happy .. ..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r164435988-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>164435988</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check in was good. Motel room was very small, but that is to be expected. Location was great, right across the street from the racetrack. Just an FYI, the peacocks that roam the neighborhood in the morning can be quite loud. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r155298937-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>155298937</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>2 towels, 3 people</t>
+  </si>
+  <si>
+    <t>None smoking room that smelled of smoke. Went to grandfathers funeral smelling of cigarettes and none of us smoke.No pets allowed but had some kind of animal hair all over the beds and floor. We all suffered with allergies the next day.  Made reservations in advance and had 2 towels that looked more like hand towels for 3 people.We had to go to a relatives to do laundry to rid our clothing of the smells and hair on them.Motel 6 corporate sent us a voucher for a free nights stay but that did not make up for a miserable night during a really trying time in our lives.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r135313016-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>135313016</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>This place has bed bugs!!</t>
+  </si>
+  <si>
+    <t>I stayed here due to the motel 6 in ingelwood looked like it was in the ghetto and the next morning me and my family woke up with giant bites all over our body. So we left 2 days early and had to wash everything we took with us as soon as we returned home and now all of our bites are inflamed and my poor 1 year old looks like hes got chickenpox with as many bites as he has i would never stay hete again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r132562883-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>132562883</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Better than sleeping in a vomit filled alley!</t>
+  </si>
+  <si>
+    <t>Arriving late the check in was fairly basic and the guy at the desk was reasonably short due to it having been midnight. Entering the room I was overwhelmed with a musty odor that made me cringe. Right off we noticed candy wrappers on the floor that didn't move over a weeks time even though someone had made the beds daily. (Rm 118 they are probably still there) lumpy worn out mattresses, dirty toilet, smelly, basically nothing was inviting. It was bad enough that I left my baG in the truck to minimize the smell from carrying over. Nasty nasty! In fact it took me ten minutes to build up the courage to get into the bed (nice custom motel6 covers probably from the 60s)  on the up side there was a bottle opener bolted to the sink vanity( probably to help sedate yourself enough to be comfortable). Overall this place is horrendous! I will never return! If it hadn't been supplied by our employer I would never had stayed here! Save yourself while you can! MoreShow less</t>
+  </si>
+  <si>
+    <t>Arriving late the check in was fairly basic and the guy at the desk was reasonably short due to it having been midnight. Entering the room I was overwhelmed with a musty odor that made me cringe. Right off we noticed candy wrappers on the floor that didn't move over a weeks time even though someone had made the beds daily. (Rm 118 they are probably still there) lumpy worn out mattresses, dirty toilet, smelly, basically nothing was inviting. It was bad enough that I left my baG in the truck to minimize the smell from carrying over. Nasty nasty! In fact it took me ten minutes to build up the courage to get into the bed (nice custom motel6 covers probably from the 60s)  on the up side there was a bottle opener bolted to the sink vanity( probably to help sedate yourself enough to be comfortable). Overall this place is horrendous! I will never return! If it hadn't been supplied by our employer I would never had stayed here! Save yourself while you can! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r131845975-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>131845975</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Good choice for pet friendly stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location was great, lots of restaurants in area. The Santa Anita park near by provided a safe and beautiful area for our exercise. Family friendly. The staff at the motel 6 were super friendly and the room, although "classic" motel 6 was clean and quiet.  The Scotties loved the grounds, trees and birds to entertain them. I would stop here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r125899800-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>125899800</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>The place is clean and well managed. Across the street from Santa Anita race track. Lots of nearby shops and restaurants. The room was clean and comfortable.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r124674782-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>124674782</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>OMG, the reviews are true.  Don't stay here!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Okay, lemme start by saying that I thought I knew what I was getting into when the friend I was visiting recommended I stay here because it was cheap.  Slumming is slumming, but nothing can describe how awful this place is.  Do you remember when you were young and foolish and needed a place to crash during the out of town ball tournament that you'd be drunk at all weekend?  Well, you wouldn't even want to be drunk here.
+This place is typical motel style.  Except this one features carnie-type folk who sit outside their room doors in fold-up chairs and eyeball you when you drive up.  At check-in, you PREPAY for your room.  Hmmm.  Oh, and you buy internet access at the front desk per day and the girl keeps your cash and does not write you a receipt.
+Access to the rooms is decent.  That's about all.  Our door didn't close properly and I could see daylight all around the door.  The room smelled of B-O and old cigarettes, even though it was a non-smoking room (we had an overturned ash-tray in our room with a no-smoking sign on it, lol).  The carpet/mat was blue, had holes it in, was grimy and I didn't take my shoes off the entire time.  The furniture, or lack thereof, was old, grimy, cheap and I wouldn't even lay my clothes out on it.  The beds were barely doubles, as advertised and...Okay, lemme start by saying that I thought I knew what I was getting into when the friend I was visiting recommended I stay here because it was cheap.  Slumming is slumming, but nothing can describe how awful this place is.  Do you remember when you were young and foolish and needed a place to crash during the out of town ball tournament that you'd be drunk at all weekend?  Well, you wouldn't even want to be drunk here.This place is typical motel style.  Except this one features carnie-type folk who sit outside their room doors in fold-up chairs and eyeball you when you drive up.  At check-in, you PREPAY for your room.  Hmmm.  Oh, and you buy internet access at the front desk per day and the girl keeps your cash and does not write you a receipt.Access to the rooms is decent.  That's about all.  Our door didn't close properly and I could see daylight all around the door.  The room smelled of B-O and old cigarettes, even though it was a non-smoking room (we had an overturned ash-tray in our room with a no-smoking sign on it, lol).  The carpet/mat was blue, had holes it in, was grimy and I didn't take my shoes off the entire time.  The furniture, or lack thereof, was old, grimy, cheap and I wouldn't even lay my clothes out on it.  The beds were barely doubles, as advertised and the room so small that my bed was shoved right up against the outdoor air conditioner unit.  Thoughts of Legionnaires disease raced through my mind and I actually did come home with a bad flu and bronchitis which I know was a result of this marvellous room layout.  I'm no Howie Mandell, but one doesn't need to have OCD to be grossed out by this place.  The bedsheets had stains (not urine I hope, but some other black water stains).  The comforters were stinky, had holes and cigarette burns and might I say, some "chunks" of stuff that looked like dried snot.  Sorry, I had to say it.  I felt itchy all night.The shower had a replaced lower tub form that was improperly installed and rocked from end to end when you moved inside for a shower.  There was also a big hole in the tub form.No shampoo, hairdryer or much else.  We were too tired to find another place due to our late arrival, but trust me I had waking night-terrors sleeping in this room.  We promptly checked out in the morning.Cannot say enough bad about this place.  Apparently, some people on Trip Advisor say they love this place.  I would say those people are lying through their -----.OMG, save yourself.  Don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Okay, lemme start by saying that I thought I knew what I was getting into when the friend I was visiting recommended I stay here because it was cheap.  Slumming is slumming, but nothing can describe how awful this place is.  Do you remember when you were young and foolish and needed a place to crash during the out of town ball tournament that you'd be drunk at all weekend?  Well, you wouldn't even want to be drunk here.
+This place is typical motel style.  Except this one features carnie-type folk who sit outside their room doors in fold-up chairs and eyeball you when you drive up.  At check-in, you PREPAY for your room.  Hmmm.  Oh, and you buy internet access at the front desk per day and the girl keeps your cash and does not write you a receipt.
+Access to the rooms is decent.  That's about all.  Our door didn't close properly and I could see daylight all around the door.  The room smelled of B-O and old cigarettes, even though it was a non-smoking room (we had an overturned ash-tray in our room with a no-smoking sign on it, lol).  The carpet/mat was blue, had holes it in, was grimy and I didn't take my shoes off the entire time.  The furniture, or lack thereof, was old, grimy, cheap and I wouldn't even lay my clothes out on it.  The beds were barely doubles, as advertised and...Okay, lemme start by saying that I thought I knew what I was getting into when the friend I was visiting recommended I stay here because it was cheap.  Slumming is slumming, but nothing can describe how awful this place is.  Do you remember when you were young and foolish and needed a place to crash during the out of town ball tournament that you'd be drunk at all weekend?  Well, you wouldn't even want to be drunk here.This place is typical motel style.  Except this one features carnie-type folk who sit outside their room doors in fold-up chairs and eyeball you when you drive up.  At check-in, you PREPAY for your room.  Hmmm.  Oh, and you buy internet access at the front desk per day and the girl keeps your cash and does not write you a receipt.Access to the rooms is decent.  That's about all.  Our door didn't close properly and I could see daylight all around the door.  The room smelled of B-O and old cigarettes, even though it was a non-smoking room (we had an overturned ash-tray in our room with a no-smoking sign on it, lol).  The carpet/mat was blue, had holes it in, was grimy and I didn't take my shoes off the entire time.  The furniture, or lack thereof, was old, grimy, cheap and I wouldn't even lay my clothes out on it.  The beds were barely doubles, as advertised and the room so small that my bed was shoved right up against the outdoor air conditioner unit.  Thoughts of Legionnaires disease raced through my mind and I actually did come home with a bad flu and bronchitis which I know was a result of this marvellous room layout.  I'm no Howie Mandell, but one doesn't need to have OCD to be grossed out by this place.  The bedsheets had stains (not urine I hope, but some other black water stains).  The comforters were stinky, had holes and cigarette burns and might I say, some "chunks" of stuff that looked like dried snot.  Sorry, I had to say it.  I felt itchy all night.The shower had a replaced lower tub form that was improperly installed and rocked from end to end when you moved inside for a shower.  There was also a big hole in the tub form.No shampoo, hairdryer or much else.  We were too tired to find another place due to our late arrival, but trust me I had waking night-terrors sleeping in this room.  We promptly checked out in the morning.Cannot say enough bad about this place.  Apparently, some people on Trip Advisor say they love this place.  I would say those people are lying through their -----.OMG, save yourself.  Don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r122572613-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>122572613</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>Small, worn-in, budget motel</t>
+  </si>
+  <si>
+    <t>Paid a premium to stay before Rose Bowl which made me even more disappointed! Rooms were cramped and dingy. Comforters had holes probably caused by cigarette burns. That it was a smoking room made it all the worse (they had no more non-smoking rooms available). There was a handlebar set in the bathtub area that had a large hole on one side. It was as if they just forgot to fix it. The fan in the bathroom also made an awful sound. The positive is that the staff was nice and it was convenient to restaurants and other activities.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r90743630-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>90743630</t>
+  </si>
+  <si>
+    <t>12/26/2010</t>
+  </si>
+  <si>
+    <t>clean and comfy</t>
+  </si>
+  <si>
+    <t>Will stay there in future if available...Staff was attentive to our needs and quick in their response...</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r89846952-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>89846952</t>
+  </si>
+  <si>
+    <t>12/14/2010</t>
+  </si>
+  <si>
+    <t>OHHHH I love this location, great view of the mountains!</t>
+  </si>
+  <si>
+    <t>My wife and i are from San Diego and stayed here for the night to see her relatives the next day.We were at awe looking at the nice view of the mountain that this location has and the staff are great and so friendly. We had a good start laughing at the wake up call that we got from Tom Bodet and we went to have coffee and the whole place is just so quiet and so calm.not bad for a budget motel,such a great place.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r89024880-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>89024880</t>
+  </si>
+  <si>
+    <t>12/04/2010</t>
+  </si>
+  <si>
+    <t>Stay Elsewhere</t>
+  </si>
+  <si>
+    <t>We chose this hotel based on three factors:  proximity to Sierra Madre where family live; TripAdvisor comments and being dog friendly.  In our seven week, 10,000+ mile trip around the United States we rate this hotel at the bottom.
+The only good thing that we can say is that the grounds are nice.  The rooms are not.
+They are tiny with two double beds - no other types are available.  They are not clean - the carpeting is disgusting.  My wife screamed as she tried to drain the tub following a bath - dirt and filth backed up into the tub.  
+When I complained, I was offered $10 off.  The the front desk person decided to renege and offered another room and hour later.  Its appearance was the same and the tub drained properly.  Unfortunately, all of the parking spaces in front of it were taken - we chose to stay in the first room.  The next morning, I showered in the second.
+The beds were old and uncomfortable - we used our air mattress.  We both awakened with headaches.
+Also, there was a fair amount of noise from other guests.  The buildings were poorly constructed decades ago.
+I recommend that the place be torn down and replaced with something more up-to-date - the location is across from the Santa Anita race track.  For sure, Motel 6 should take its name off this one.  Finally, only poorly brewed coffee was...We chose this hotel based on three factors:  proximity to Sierra Madre where family live; TripAdvisor comments and being dog friendly.  In our seven week, 10,000+ mile trip around the United States we rate this hotel at the bottom.The only good thing that we can say is that the grounds are nice.  The rooms are not.They are tiny with two double beds - no other types are available.  They are not clean - the carpeting is disgusting.  My wife screamed as she tried to drain the tub following a bath - dirt and filth backed up into the tub.  When I complained, I was offered $10 off.  The the front desk person decided to renege and offered another room and hour later.  Its appearance was the same and the tub drained properly.  Unfortunately, all of the parking spaces in front of it were taken - we chose to stay in the first room.  The next morning, I showered in the second.The beds were old and uncomfortable - we used our air mattress.  We both awakened with headaches.Also, there was a fair amount of noise from other guests.  The buildings were poorly constructed decades ago.I recommend that the place be torn down and replaced with something more up-to-date - the location is across from the Santa Anita race track.  For sure, Motel 6 should take its name off this one.  Finally, only poorly brewed coffee was available only in the small lobby.  Stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>We chose this hotel based on three factors:  proximity to Sierra Madre where family live; TripAdvisor comments and being dog friendly.  In our seven week, 10,000+ mile trip around the United States we rate this hotel at the bottom.
+The only good thing that we can say is that the grounds are nice.  The rooms are not.
+They are tiny with two double beds - no other types are available.  They are not clean - the carpeting is disgusting.  My wife screamed as she tried to drain the tub following a bath - dirt and filth backed up into the tub.  
+When I complained, I was offered $10 off.  The the front desk person decided to renege and offered another room and hour later.  Its appearance was the same and the tub drained properly.  Unfortunately, all of the parking spaces in front of it were taken - we chose to stay in the first room.  The next morning, I showered in the second.
+The beds were old and uncomfortable - we used our air mattress.  We both awakened with headaches.
+Also, there was a fair amount of noise from other guests.  The buildings were poorly constructed decades ago.
+I recommend that the place be torn down and replaced with something more up-to-date - the location is across from the Santa Anita race track.  For sure, Motel 6 should take its name off this one.  Finally, only poorly brewed coffee was...We chose this hotel based on three factors:  proximity to Sierra Madre where family live; TripAdvisor comments and being dog friendly.  In our seven week, 10,000+ mile trip around the United States we rate this hotel at the bottom.The only good thing that we can say is that the grounds are nice.  The rooms are not.They are tiny with two double beds - no other types are available.  They are not clean - the carpeting is disgusting.  My wife screamed as she tried to drain the tub following a bath - dirt and filth backed up into the tub.  When I complained, I was offered $10 off.  The the front desk person decided to renege and offered another room and hour later.  Its appearance was the same and the tub drained properly.  Unfortunately, all of the parking spaces in front of it were taken - we chose to stay in the first room.  The next morning, I showered in the second.The beds were old and uncomfortable - we used our air mattress.  We both awakened with headaches.Also, there was a fair amount of noise from other guests.  The buildings were poorly constructed decades ago.I recommend that the place be torn down and replaced with something more up-to-date - the location is across from the Santa Anita race track.  For sure, Motel 6 should take its name off this one.  Finally, only poorly brewed coffee was available only in the small lobby.  Stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r76269540-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>76269540</t>
+  </si>
+  <si>
+    <t>08/22/2010</t>
+  </si>
+  <si>
+    <t>Motel 6?  Turn out the light.</t>
+  </si>
+  <si>
+    <t>I have teeny bit of good news, and lots of bad news.  We are at this place as I type this.  Oh!  Let me mention one thing.  When you BUY the $2.99 internet access card, please know something that was NOT told to us by the chappie who checked us in this afternoon.  That wifi access card is good for ONE DEVICE ONLY.  So, if your teenager uses it for their iPod first, be aware that you'll have to run on down to the office again to get another card for your laptop (which I had to do in order to book a DIFFERENT place to stay tomorrow night!
+Goods first.  Pros:  Location is quiet, easy to get to.  Room LOOKED clean (emphasis on 'look').  The air conditioning unit was fairly quiet.  And for a motel, the shower head was above-normal.
+Now then, the Cons, and the reasons why we cut short our two-night stay to a one-night, with the desire to find the nicest hotel we can afford (or maybe a bit more) to reward us for what we had to endure:
+---If you are aware of how the interior of a old-folks rest home smells, well, that's how our room smelled.  The was the distinct aroma of misplaced urine.  We got back late at night from our event, smelled the room, and I had to go search out a market at 1am in the morning to buy some...I have teeny bit of good news, and lots of bad news.  We are at this place as I type this.  Oh!  Let me mention one thing.  When you BUY the $2.99 internet access card, please know something that was NOT told to us by the chappie who checked us in this afternoon.  That wifi access card is good for ONE DEVICE ONLY.  So, if your teenager uses it for their iPod first, be aware that you'll have to run on down to the office again to get another card for your laptop (which I had to do in order to book a DIFFERENT place to stay tomorrow night!Goods first.  Pros:  Location is quiet, easy to get to.  Room LOOKED clean (emphasis on 'look').  The air conditioning unit was fairly quiet.  And for a motel, the shower head was above-normal.Now then, the Cons, and the reasons why we cut short our two-night stay to a one-night, with the desire to find the nicest hotel we can afford (or maybe a bit more) to reward us for what we had to endure:---If you are aware of how the interior of a old-folks rest home smells, well, that's how our room smelled.  The was the distinct aroma of misplaced urine.  We got back late at night from our event, smelled the room, and I had to go search out a market at 1am in the morning to buy some air freshener.  I would never be able to sleep otherwise.  It was dees-gusss-ting!---The wifi card situation, previously mentioned.---The door of the room was so hard to close, that we had to slam it each time to get it to latch.---The bathroom door had no lock on it, so better trust your family members.---Bedspread had more than one hole in it.---The soap offered in the shower didn't even survive through one shower, before splitting in two.Yeah.  We're going to splurge a bit tomorrow night.  Trust me.  It's worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I have teeny bit of good news, and lots of bad news.  We are at this place as I type this.  Oh!  Let me mention one thing.  When you BUY the $2.99 internet access card, please know something that was NOT told to us by the chappie who checked us in this afternoon.  That wifi access card is good for ONE DEVICE ONLY.  So, if your teenager uses it for their iPod first, be aware that you'll have to run on down to the office again to get another card for your laptop (which I had to do in order to book a DIFFERENT place to stay tomorrow night!
+Goods first.  Pros:  Location is quiet, easy to get to.  Room LOOKED clean (emphasis on 'look').  The air conditioning unit was fairly quiet.  And for a motel, the shower head was above-normal.
+Now then, the Cons, and the reasons why we cut short our two-night stay to a one-night, with the desire to find the nicest hotel we can afford (or maybe a bit more) to reward us for what we had to endure:
+---If you are aware of how the interior of a old-folks rest home smells, well, that's how our room smelled.  The was the distinct aroma of misplaced urine.  We got back late at night from our event, smelled the room, and I had to go search out a market at 1am in the morning to buy some...I have teeny bit of good news, and lots of bad news.  We are at this place as I type this.  Oh!  Let me mention one thing.  When you BUY the $2.99 internet access card, please know something that was NOT told to us by the chappie who checked us in this afternoon.  That wifi access card is good for ONE DEVICE ONLY.  So, if your teenager uses it for their iPod first, be aware that you'll have to run on down to the office again to get another card for your laptop (which I had to do in order to book a DIFFERENT place to stay tomorrow night!Goods first.  Pros:  Location is quiet, easy to get to.  Room LOOKED clean (emphasis on 'look').  The air conditioning unit was fairly quiet.  And for a motel, the shower head was above-normal.Now then, the Cons, and the reasons why we cut short our two-night stay to a one-night, with the desire to find the nicest hotel we can afford (or maybe a bit more) to reward us for what we had to endure:---If you are aware of how the interior of a old-folks rest home smells, well, that's how our room smelled.  The was the distinct aroma of misplaced urine.  We got back late at night from our event, smelled the room, and I had to go search out a market at 1am in the morning to buy some air freshener.  I would never be able to sleep otherwise.  It was dees-gusss-ting!---The wifi card situation, previously mentioned.---The door of the room was so hard to close, that we had to slam it each time to get it to latch.---The bathroom door had no lock on it, so better trust your family members.---Bedspread had more than one hole in it.---The soap offered in the shower didn't even survive through one shower, before splitting in two.Yeah.  We're going to splurge a bit tomorrow night.  Trust me.  It's worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r73130747-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>73130747</t>
+  </si>
+  <si>
+    <t>07/31/2010</t>
+  </si>
+  <si>
+    <t>Very Nice Motel 6! Reasonable, Very Clean, Pretty Location</t>
+  </si>
+  <si>
+    <t>I often stay at Motel 6 across the country and was delighted when I drove up to this pretty property with roses and nicely landscaped trees. My room was nice and clean and the staff is very helpful. My only issue with the room was that the air conditioner was very loud. I booked online and saved a few more dollars.  Coffee is served free in the lobby and wifi is a few dollars extra. The layout of the complex makes the lobby easily accessible for all rooms. I will definitely return to this reasonably priced, friendly hotel!</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r20534555-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>20534555</t>
+  </si>
+  <si>
+    <t>10/01/2008</t>
+  </si>
+  <si>
+    <t>Great value, clean rooms</t>
+  </si>
+  <si>
+    <t>Have stayed here several times.  Rooms are nice and clean.  No extra amenities so be sure to bring shampoo (didn't the first time and had to make a run to the 99 cent store).Beds firm and comfortable.  TV has some upgraded channels.Wi-fi is available for a few dollars extra.Rooms used to be less expensive from internet booking, but not currently.Pet friendly.Beautiful pool, but it is not heated...brrr...</t>
+  </si>
+  <si>
+    <t>September 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1261,1898 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>198</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6267</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_538.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_538.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>mzinger</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>On a recent cross-country trip from Oregon to Michigan and back (via California), we stayed at 15 different Motel 6 locations.  Generally, they fall into one of two categories – “a decent stay for a decent price,” or “a sleep cheap and we know it.”  The former are well-kept properties where service and cleanliness are top-notch; the latter are places that fail to perform routine maintenance or cleaning, and/or fail to in some other manner.The Pasadena Motel 6 was the best of the 15 – beautiful facility and great staff.  The only issue we had was there was no remote for the TV – we told the front desk and they immediate found us one.  5 stars here.More</t>
   </si>
   <si>
+    <t>Chimp_Baxter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r524500906-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Windman69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r483658968-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TexasLover</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r435409624-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
@@ -253,6 +265,9 @@
 Still, the hotel is very convenient for plans at Santa Anita.  The street side of the motel faces Santa Anita and the backside gives you a mountain view.  If you have mobility issues, the motel is two stories with no elevator, you will need a first floor room.  The staff was a plus, in my opinion.  The front desk clerks were always friendly and helpful.  We got a free early check-in and a late check-out.  The staff...We stayed for five nights in the Motel 6 Arcadia over Breeders' Cup 2016 week.  The motel is very close to the world-famous Santa Anita Race Park and, like all hotels in the area, drew quite a premium (over $100.00 per night) for the special event.  I believe regular pricing is closer to $75.00 per night.I wanted to comment on a recent review stating that the Santa Anita Race Track is just across the street from the hotel.  Technically, this may be right.  Just across Colorado Street, you will be in one of the very distant parking lots of Santa Anita, but it is well over 1/2 of a mile to the entrance gate.  Also in the well meaning review, it was stated that the Westfield Mall is a two minute walk from the motel.  That simply is not the case.  You will need to drive all the way around the track to get to the upscale mall.....well over a mile away.Still, the hotel is very convenient for plans at Santa Anita.  The street side of the motel faces Santa Anita and the backside gives you a mountain view.  If you have mobility issues, the motel is two stories with no elevator, you will need a first floor room.  The staff was a plus, in my opinion.  The front desk clerks were always friendly and helpful.  We got a free early check-in and a late check-out.  The staff graciously refrigerated my medication during the stay.  There was fresh, hot coffee in the lobby each morning.Housekeeping was a real highlight.  Each day we would come back to a very clean room with beds made perfectly.  The housekeepers take pride in their work and we appreciated their efforts.  The grounds were kept up nice and the premises were clean.  The beds were comfortable and there was a good selection of channels on the mounted flat screen TV.The water pressure was a little low in the shower, but plenty of hot water.  The water saver on the sink is just obnoxious.  It takes you about 20 seconds to fill up an 8 ounce cup.  Still, the room was clean and comfortable, which was our ultimate goal.  The ice machine went out for two days of our stay and the front desk tried to import enough ice for the guests, which helped.  It appears that the hotel guests and maybe a few trespassers continually loaded up ice chests for their day at the race track and overwhelmed the machine.  It was fixed within 48 hours.The motel has a really poor system of maintaining non-smoking rooms.  We had a non-smoking room that had a moderate smell of smoke.  We reported that to the front desk so that we would not be charged a cleaning fee for smoking in the room.  We learned that there is no penalty for smokers smoking in a non-smoking room.  Of course, this effectively makes every room a smoking room.  The housekeeper tried to deodorize the room, but still it had a smoky smell.  The staff offered another non-smoking room, which had the same problem.  I wish Motel 6 would try to protect its non-smoking rooms better with a standard $250.00 cleaning fee if evidence of smoke is found in the room.Also, the motel provides no shampoo, no conditioner, no hairdryer (although the front desk has loaners), no iron or ironing board, no refrigerator, no microwave, no clock and no coffee pot.  The vending machines downstairs were old and did not accept our dollars.  No convenience stores or grocery stores are within a couple of miles.  Peppers Mexican Grill is about 300 yards down the road, but was pricey and not very good.If you drive a couple of miles into the heart of town, you will find many good restaurants and a Ralph's grocery store.  We could not get the $3.00 per day wi-fi to connect, so we just used our regular 4G Internet service on our cell phones..  We typically prefer hotels over motels and may only stay at a Motel 6 in the future if the location really matters.  If the Breeders' Cup returns to Santa Anita, this motel will likely be where we stay.More</t>
   </si>
   <si>
+    <t>garyvc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r431872610-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -271,6 +286,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>go9ron2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r410322084-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -289,6 +307,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>ritch62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r363059756-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -302,6 +323,9 @@
   </si>
   <si>
     <t>Renovated rooms, very convenient to race track and Methodist Hospital.  Basic room, no refrig or microwave, but good Wi-Fi (pay by the day) and friendly staff.  sometimes noisy but not bad. inner court yard might be less noise.</t>
+  </si>
+  <si>
+    <t>dlabrake</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r359813047-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
@@ -339,6 +363,9 @@
 This was my...Upon check in, the hotel has a policy which requires every adult staying in the room to show ID.  Although this isn't a bad thing, I've never had to have my spouse show their ID to the front check in clerk.  The property appeared to be very nice on the outside.  The room, however, was a different story.  Upon opening my room, the smell of smoke just about strangled me.  I have never, and I mean never, smelled so much smoke in a room in my life.  Unfortunately, the hotel was sold out and there were no more rooms available.  At 10pm, you are left with what they gave you.  I use a c-pap machine and the smell is still in the machine 4 days later, I can't seem to get it out.  My allergies were a mess the next day.The room appearance was very nice, the bed was not.  Both of us had sore backs the next morning.  We both kept waking up during the night the bed was so uncomfortable.  There is no box spring, it's just a mattress on a board frame.  The towel holder had so much dust it probably hasn't been cleaned in months.  The next morning I needed to iron and of course, no iron's or boards in the room.  You need to go to the lobby, leave your ID and they will let you borrow a board and iron.  This was my first and last time at a Motel 6.  I am not typically a picky person.  As long as  room is clean and comfortable I don't care what the name on the sigh says.  This was not a good experience.More</t>
   </si>
   <si>
+    <t>lpreston491</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r352925456-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>yeozydoj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r329115992-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Debbie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r322832022-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>My boyfriend and I stay here every so often to get away from things. We have never had any problems here. The staff was very friendly even when they were swamped, the rooms very clean and BUG FREE. The room service system they have is on the pricey side but still very good. There were varies shady people staying there we found them not to be a bother. We figure they just want to be left alone to do there thing just like anybody else staying there. Actually felt very safe there Arcadia Police drive though a few times a day. Great location varies restaurants shopping mall and very close to pasadena. We are looking forward to out next great away. Would highly recommend this Motel 6.More</t>
   </si>
   <si>
+    <t>Dan E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r315738732-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t xml:space="preserve">What a great Motel 6. Nice room and a great location. Room was very nice and clean. Felt safe and secure and happy with rates compared to the rest of LA rates. Will definitely stay here again. Great value and they take my dog. Very happy traveler! </t>
   </si>
   <si>
+    <t>SECoop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r257376789-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t>We were a bit stranded due to mechanical problems - and during the time it took to (a) find a mechanic with a  tow truck and (b) try and wait for his (very busy schedule.) This Motel 6 allowed us to keep the room beyond check out time in order that we would be comfortable as we waited.  We asked the housekeeping staff if that would throw off their 'schedule' and each maid replied:  "we will save you for last" -- they were so kind and so caring, and I cannot thank them enough.  BTW:  Nice room at a great price, and they helped me through a difficult situation with compassion.More</t>
   </si>
   <si>
+    <t>pirson1229</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r221193479-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t xml:space="preserve">Rooms and cleanliness are about standard for a motel 6.  The location is ok but what makes this motel particularly bad is the staff.  This hotel's "policies" are different from their corporate ones and... they change depending on the staff member.  Manager is rude, borderline aggressive not interested in building return business.  </t>
   </si>
   <si>
+    <t>JimmyJackk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r213297846-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Sammy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r184363771-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>Chose this MOTEL-6 because of it's location for the BREEDERS' CUP @ Santa Anita across the street .. .. For the races, this location is unmatched as the entrance (through the infield) is just across the street - You can just chip a golfball from dour room to the entrance gate!!UNMATCHED LOCATION FOR SANTA ANITA RACETRACK!!!Keep in mind, this is MOTEL-6, and even with that in mind our stay in Room 110 was terrific .. ..LARGE, ROOMY, COMFY BEDS &amp; DECENT WI-FI .. .. Our stays in the others rooms saw a smaller room and smaller pillows, so definitely choose a corner room (110, 210 etc.) whenever possible .. .. Suggestion &gt; I tend to travel with a favorite beach blanket, large pillow and bathroom towel anyways so when you bring that into any MOTEL-6 room, you're just fine .. .. If you are expecting a MARRIOTT, HOLIDAY INN or SHERATON experience, that is just unrealistic .. .. Be prepared = Be happy .. ..More</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r164435988-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t xml:space="preserve">Check in was good. Motel room was very small, but that is to be expected. Location was great, right across the street from the racetrack. Just an FYI, the peacocks that roam the neighborhood in the morning can be quite loud. </t>
   </si>
   <si>
+    <t>Chris L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r155298937-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -519,6 +573,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Dpurcell08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r135313016-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -534,6 +591,9 @@
     <t>I stayed here due to the motel 6 in ingelwood looked like it was in the ghetto and the next morning me and my family woke up with giant bites all over our body. So we left 2 days early and had to wash everything we took with us as soon as we returned home and now all of our bites are inflamed and my poor 1 year old looks like hes got chickenpox with as many bites as he has i would never stay hete again</t>
   </si>
   <si>
+    <t>Coreyrockstheparty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r132562883-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -552,6 +612,9 @@
     <t>Arriving late the check in was fairly basic and the guy at the desk was reasonably short due to it having been midnight. Entering the room I was overwhelmed with a musty odor that made me cringe. Right off we noticed candy wrappers on the floor that didn't move over a weeks time even though someone had made the beds daily. (Rm 118 they are probably still there) lumpy worn out mattresses, dirty toilet, smelly, basically nothing was inviting. It was bad enough that I left my baG in the truck to minimize the smell from carrying over. Nasty nasty! In fact it took me ten minutes to build up the courage to get into the bed (nice custom motel6 covers probably from the 60s)  on the up side there was a bottle opener bolted to the sink vanity( probably to help sedate yourself enough to be comfortable). Overall this place is horrendous! I will never return! If it hadn't been supplied by our employer I would never had stayed here! Save yourself while you can! More</t>
   </si>
   <si>
+    <t>readytogogram</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r131845975-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -567,6 +630,9 @@
     <t xml:space="preserve">The location was great, lots of restaurants in area. The Santa Anita park near by provided a safe and beautiful area for our exercise. Family friendly. The staff at the motel 6 were super friendly and the room, although "classic" motel 6 was clean and quiet.  The Scotties loved the grounds, trees and birds to entertain them. I would stop here again. </t>
   </si>
   <si>
+    <t>J S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r125899800-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -583,6 +649,9 @@
   </si>
   <si>
     <t>March 2012</t>
+  </si>
+  <si>
+    <t>InsideTrack</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r124674782-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
@@ -610,6 +679,9 @@
 Access to the rooms is decent.  That's about all.  Our door didn't close properly and I could see daylight all around the door.  The room smelled of B-O and old cigarettes, even though it was a non-smoking room (we had an overturned ash-tray in our room with a no-smoking sign on it, lol).  The carpet/mat was blue, had holes it in, was grimy and I didn't take my shoes off the entire time.  The furniture, or lack thereof, was old, grimy, cheap and I wouldn't even lay my clothes out on it.  The beds were barely doubles, as advertised and...Okay, lemme start by saying that I thought I knew what I was getting into when the friend I was visiting recommended I stay here because it was cheap.  Slumming is slumming, but nothing can describe how awful this place is.  Do you remember when you were young and foolish and needed a place to crash during the out of town ball tournament that you'd be drunk at all weekend?  Well, you wouldn't even want to be drunk here.This place is typical motel style.  Except this one features carnie-type folk who sit outside their room doors in fold-up chairs and eyeball you when you drive up.  At check-in, you PREPAY for your room.  Hmmm.  Oh, and you buy internet access at the front desk per day and the girl keeps your cash and does not write you a receipt.Access to the rooms is decent.  That's about all.  Our door didn't close properly and I could see daylight all around the door.  The room smelled of B-O and old cigarettes, even though it was a non-smoking room (we had an overturned ash-tray in our room with a no-smoking sign on it, lol).  The carpet/mat was blue, had holes it in, was grimy and I didn't take my shoes off the entire time.  The furniture, or lack thereof, was old, grimy, cheap and I wouldn't even lay my clothes out on it.  The beds were barely doubles, as advertised and the room so small that my bed was shoved right up against the outdoor air conditioner unit.  Thoughts of Legionnaires disease raced through my mind and I actually did come home with a bad flu and bronchitis which I know was a result of this marvellous room layout.  I'm no Howie Mandell, but one doesn't need to have OCD to be grossed out by this place.  The bedsheets had stains (not urine I hope, but some other black water stains).  The comforters were stinky, had holes and cigarette burns and might I say, some "chunks" of stuff that looked like dried snot.  Sorry, I had to say it.  I felt itchy all night.The shower had a replaced lower tub form that was improperly installed and rocked from end to end when you moved inside for a shower.  There was also a big hole in the tub form.No shampoo, hairdryer or much else.  We were too tired to find another place due to our late arrival, but trust me I had waking night-terrors sleeping in this room.  We promptly checked out in the morning.Cannot say enough bad about this place.  Apparently, some people on Trip Advisor say they love this place.  I would say those people are lying through their -----.OMG, save yourself.  Don't stay here.More</t>
   </si>
   <si>
+    <t>Amy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r122572613-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -631,6 +703,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>BarryinSt_George</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r90743630-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -649,6 +724,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>ximcisum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r89846952-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -665,6 +743,9 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>groupsnoop</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r89024880-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
@@ -700,6 +781,9 @@
 I recommend that the place be torn down and replaced with something more up-to-date - the location is across from the Santa Anita race track.  For sure, Motel 6 should take its name off this one.  Finally, only poorly brewed coffee was...We chose this hotel based on three factors:  proximity to Sierra Madre where family live; TripAdvisor comments and being dog friendly.  In our seven week, 10,000+ mile trip around the United States we rate this hotel at the bottom.The only good thing that we can say is that the grounds are nice.  The rooms are not.They are tiny with two double beds - no other types are available.  They are not clean - the carpeting is disgusting.  My wife screamed as she tried to drain the tub following a bath - dirt and filth backed up into the tub.  When I complained, I was offered $10 off.  The the front desk person decided to renege and offered another room and hour later.  Its appearance was the same and the tub drained properly.  Unfortunately, all of the parking spaces in front of it were taken - we chose to stay in the first room.  The next morning, I showered in the second.The beds were old and uncomfortable - we used our air mattress.  We both awakened with headaches.Also, there was a fair amount of noise from other guests.  The buildings were poorly constructed decades ago.I recommend that the place be torn down and replaced with something more up-to-date - the location is across from the Santa Anita race track.  For sure, Motel 6 should take its name off this one.  Finally, only poorly brewed coffee was available only in the small lobby.  Stay elsewhere.More</t>
   </si>
   <si>
+    <t>sag-actress</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r76269540-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
   </si>
   <si>
@@ -725,6 +809,9 @@
 Goods first.  Pros:  Location is quiet, easy to get to.  Room LOOKED clean (emphasis on 'look').  The air conditioning unit was fairly quiet.  And for a motel, the shower head was above-normal.
 Now then, the Cons, and the reasons why we cut short our two-night stay to a one-night, with the desire to find the nicest hotel we can afford (or maybe a bit more) to reward us for what we had to endure:
 ---If you are aware of how the interior of a old-folks rest home smells, well, that's how our room smelled.  The was the distinct aroma of misplaced urine.  We got back late at night from our event, smelled the room, and I had to go search out a market at 1am in the morning to buy some...I have teeny bit of good news, and lots of bad news.  We are at this place as I type this.  Oh!  Let me mention one thing.  When you BUY the $2.99 internet access card, please know something that was NOT told to us by the chappie who checked us in this afternoon.  That wifi access card is good for ONE DEVICE ONLY.  So, if your teenager uses it for their iPod first, be aware that you'll have to run on down to the office again to get another card for your laptop (which I had to do in order to book a DIFFERENT place to stay tomorrow night!Goods first.  Pros:  Location is quiet, easy to get to.  Room LOOKED clean (emphasis on 'look').  The air conditioning unit was fairly quiet.  And for a motel, the shower head was above-normal.Now then, the Cons, and the reasons why we cut short our two-night stay to a one-night, with the desire to find the nicest hotel we can afford (or maybe a bit more) to reward us for what we had to endure:---If you are aware of how the interior of a old-folks rest home smells, well, that's how our room smelled.  The was the distinct aroma of misplaced urine.  We got back late at night from our event, smelled the room, and I had to go search out a market at 1am in the morning to buy some air freshener.  I would never be able to sleep otherwise.  It was dees-gusss-ting!---The wifi card situation, previously mentioned.---The door of the room was so hard to close, that we had to slam it each time to get it to latch.---The bathroom door had no lock on it, so better trust your family members.---Bedspread had more than one hole in it.---The soap offered in the shower didn't even survive through one shower, before splitting in two.Yeah.  We're going to splurge a bit tomorrow night.  Trust me.  It's worth it.More</t>
+  </si>
+  <si>
+    <t>angelroadwarrior</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d75820-r73130747-Motel_6_Los_Angeles_Arcadia_Pasadena-Arcadia_California.html</t>
@@ -1265,43 +1352,47 @@
       <c r="A2" t="n">
         <v>6267</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1319,50 +1410,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6267</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1382,50 +1477,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6267</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1445,50 +1544,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6267</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1508,50 +1611,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6267</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1569,50 +1676,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6267</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1632,41 +1743,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6267</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
@@ -1685,50 +1800,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6267</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1746,56 +1865,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6267</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1809,50 +1932,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6267</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1866,50 +1993,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6267</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1923,50 +2054,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6267</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1980,50 +2115,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6267</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2041,41 +2180,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6267</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -2104,50 +2247,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6267</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2171,50 +2318,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6267</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2238,41 +2389,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>6267</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -2301,50 +2456,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>6267</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2358,41 +2517,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6267</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -2421,41 +2584,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6267</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -2484,41 +2651,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>6267</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -2547,50 +2718,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>6267</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2614,50 +2789,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6267</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2681,50 +2860,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>6267</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -2748,50 +2931,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>6267</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2815,50 +3002,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>6267</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2882,50 +3073,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6267</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -2949,50 +3144,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6267</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3016,50 +3215,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>6267</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3083,7 +3286,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
@@ -3096,37 +3299,37 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3150,7 +3353,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
